--- a/2021-2022/Montażysta/diagram.xlsx
+++ b/2021-2022/Montażysta/diagram.xlsx
@@ -27,7 +27,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,8 +58,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -67,17 +79,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +695,77 @@
       <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
